--- a/tests/dummy_data.xlsx
+++ b/tests/dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJDELANEY\OneDrive - University of California, San Diego Health\Documents\GitHub\ExcelPostprocessor\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_2BB1D69C5B605F22072DA173563088B35299F2E8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CC20C899-2DA8-4D50-9CF5-FEDA4D734D6F}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_2BB1D69C5B605F22072DA173563088B35299F2E8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{466F9320-13C9-490B-A6D3-CDA600E4F3CF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>MRN</t>
-  </si>
-  <si>
-    <t>Report</t>
   </si>
   <si>
     <t>`Procedure performed: 12/25/1999. Air temperature: 79.0 degF. Air pressure: 1013.2 mBar.`</t>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>REPORT</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,13 +452,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -466,10 +466,10 @@
         <v>1234</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -480,10 +480,10 @@
         <v>2354</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -494,10 +494,10 @@
         <v>3456</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA3A826-9B8D-4E37-8CFF-3AC9A5AFB1E7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -536,7 +536,7 @@
         <v>1234</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,7 +544,7 @@
         <v>2354</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>3456</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/tests/dummy_data.xlsx
+++ b/tests/dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJDELANEY\OneDrive - University of California, San Diego Health\Documents\GitHub\ExcelPostprocessor\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_2BB1D69C5B605F22072DA173563088B35299F2E8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{466F9320-13C9-490B-A6D3-CDA600E4F3CF}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_2BB1D69C5B605F22072DA173563088B35299F2E8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DB4B886A-2AC6-40EC-9E13-0D8379DBF019}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>MRN</t>
   </si>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>REPORT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">`Procedure 7/4/1976 performed. Air temperature: 99.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F. air pressure:  1234.6 mBar.`</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -436,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,6 +527,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4567</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -513,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA3A826-9B8D-4E37-8CFF-3AC9A5AFB1E7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
